--- a/Projects/CCBR_PROD/Data/Femsa template v5.0 - KENGINE.xlsx
+++ b/Projects/CCBR_PROD/Data/Femsa template v5.0 - KENGINE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIS" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="539">
   <si>
     <t xml:space="preserve">English KPI Name</t>
   </si>
@@ -1628,6 +1628,9 @@
   </si>
   <si>
     <t xml:space="preserve">AS14,AS5,AS20,ATACADISTA,BARLAN,CONVENIENCIA,MERCEARIA,PADARIA,CONVENIENCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRING</t>
   </si>
   <si>
     <t xml:space="preserve">AS5,AS21</t>
@@ -1648,7 +1651,7 @@
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1684,12 +1687,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1833,7 +1830,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1874,10 +1871,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1910,7 +1903,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1942,27 +1935,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1978,7 +1951,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2022,10 +1995,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2038,15 +2007,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2054,15 +2015,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2074,7 +2035,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2086,7 +2047,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2098,7 +2059,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2203,10 +2164,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="122.117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="140.647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="123.186234817814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="141.931174089069"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -3793,7 +3754,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="6" t="s">
         <v>199</v>
       </c>
       <c r="B94" s="0" t="s">
@@ -4065,7 +4026,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="6" t="s">
         <v>230</v>
       </c>
       <c r="B110" s="0" t="s">
@@ -4269,10 +4230,10 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="9" t="s">
         <v>255</v>
       </c>
       <c r="C122" s="0" t="s">
@@ -4323,7 +4284,7 @@
       <c r="A125" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="10" t="s">
         <v>261</v>
       </c>
       <c r="C125" s="6" t="s">
@@ -4649,119 +4610,119 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="89.8744939271255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="155.748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="69.9473684210526"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="111.51012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="57.0931174089069"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="90.7287449392713"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="157.141700404858"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="70.5910931174089"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="112.582995951417"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="57.6315789473684"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="71.9838056680162"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="111.939271255061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="72.6275303643725"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="112.902834008097"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>289</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="12" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+    <row r="2" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="K2" s="16"/>
-      <c r="Q2" s="21" t="n">
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="K2" s="15"/>
+      <c r="Q2" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="20" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4769,60 +4730,60 @@
       <c r="A3" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="23" t="s">
+      <c r="K3" s="23"/>
+      <c r="L3" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="Q3" s="22" t="n">
+      <c r="Q3" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="24" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+    <row r="4" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="21" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="P4" s="18" t="s">
+      <c r="M4" s="20"/>
+      <c r="P4" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="Q4" s="15" t="n">
+      <c r="Q4" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="20" t="s">
         <v>314</v>
       </c>
     </row>
@@ -4830,10 +4791,10 @@
       <c r="A5" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>317</v>
       </c>
       <c r="E5" s="6"/>
@@ -4841,65 +4802,65 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="24"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="22" t="n">
+      <c r="Q5" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="R5" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="T5" s="24" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+    <row r="6" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="15" t="n">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="R6" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="T6" s="21" t="s">
+      <c r="T6" s="20" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>317</v>
       </c>
       <c r="E7" s="6"/>
@@ -4907,293 +4868,293 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="24"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="22" t="n">
+      <c r="Q7" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="23" t="s">
+      <c r="R7" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="S7" s="23" t="s">
+      <c r="S7" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="T7" s="25" t="s">
+      <c r="T7" s="24" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="8" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
+    <row r="8" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="15" t="n">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="18" t="s">
+      <c r="R8" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="S8" s="18" t="s">
+      <c r="S8" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="T8" s="21" t="s">
+      <c r="T8" s="20" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>323</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="23" t="s">
+      <c r="K9" s="23"/>
+      <c r="L9" s="22" t="s">
         <v>325</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="P9" s="23" t="s">
+      <c r="P9" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="Q9" s="22" t="n">
+      <c r="Q9" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="R9" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="S9" s="23" t="s">
+      <c r="S9" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="T9" s="25" t="s">
+      <c r="T9" s="24" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="10" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+    <row r="10" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="18" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="P10" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="Q10" s="15" t="n">
+      <c r="Q10" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="R10" s="18" t="s">
+      <c r="R10" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="S10" s="18" t="s">
+      <c r="S10" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="T10" s="21" t="s">
+      <c r="T10" s="20" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>323</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="M11" s="25"/>
+      <c r="M11" s="24"/>
       <c r="N11" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="P11" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="Q11" s="22" t="n">
+      <c r="Q11" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="R11" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="S11" s="23" t="s">
+      <c r="S11" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="T11" s="25" t="s">
+      <c r="T11" s="24" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="12" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
+    <row r="12" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="L12" s="21" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="L12" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="M12" s="21"/>
-      <c r="P12" s="18" t="s">
+      <c r="M12" s="20"/>
+      <c r="P12" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="Q12" s="15" t="n">
+      <c r="Q12" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="R12" s="18" t="s">
+      <c r="R12" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="S12" s="18" t="s">
+      <c r="S12" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="T12" s="21" t="s">
+      <c r="T12" s="20" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="13" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="29" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="N13" s="29" t="s">
+      <c r="N13" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="P13" s="27" t="s">
+      <c r="P13" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="Q13" s="28" t="n">
+      <c r="Q13" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="R13" s="27" t="s">
+      <c r="R13" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="S13" s="27" t="s">
+      <c r="S13" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="T13" s="31" t="s">
+      <c r="T13" s="24" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="14" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
+    <row r="14" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="H14" s="18" t="n">
+      <c r="H14" s="17" t="n">
         <v>600</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="21" t="s">
+      <c r="K14" s="17"/>
+      <c r="L14" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="18" t="s">
+      <c r="M14" s="20"/>
+      <c r="N14" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="Q14" s="15" t="n">
+      <c r="Q14" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="R14" s="18" t="s">
+      <c r="R14" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="S14" s="18" t="s">
+      <c r="S14" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="T14" s="21" t="s">
+      <c r="T14" s="20" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>323</v>
       </c>
       <c r="E15" s="6"/>
@@ -5201,863 +5162,863 @@
       <c r="G15" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="H15" s="23" t="n">
+      <c r="H15" s="22" t="n">
         <v>600</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="25" t="s">
+      <c r="K15" s="22"/>
+      <c r="L15" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="23" t="s">
+      <c r="M15" s="24"/>
+      <c r="N15" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="P15" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="Q15" s="22" t="n">
+      <c r="Q15" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="R15" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="S15" s="23" t="s">
+      <c r="S15" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="T15" s="25" t="s">
+      <c r="T15" s="24" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="16" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
+    <row r="16" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="H16" s="18" t="n">
+      <c r="H16" s="17" t="n">
         <v>600</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="21" t="s">
+      <c r="K16" s="17"/>
+      <c r="L16" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="18" t="s">
+      <c r="M16" s="20"/>
+      <c r="N16" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="P16" s="18" t="s">
+      <c r="P16" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="Q16" s="15" t="n">
+      <c r="Q16" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="R16" s="18" t="s">
+      <c r="R16" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="S16" s="18" t="s">
+      <c r="S16" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="T16" s="21" t="s">
+      <c r="T16" s="20" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23" t="s">
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
         <v>345</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="H17" s="23" t="n">
+      <c r="H17" s="22" t="n">
         <v>600</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="N17" s="23" t="s">
+      <c r="N17" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23" t="s">
+      <c r="O17" s="22"/>
+      <c r="P17" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="Q17" s="22" t="n">
+      <c r="Q17" s="21" t="n">
         <v>40</v>
       </c>
-      <c r="R17" s="23" t="s">
+      <c r="R17" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="S17" s="23" t="s">
+      <c r="S17" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="T17" s="25" t="s">
+      <c r="T17" s="24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="18" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
+    <row r="18" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="17"/>
+      <c r="F18" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="H18" s="18" t="n">
+      <c r="H18" s="17" t="n">
         <v>600</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="N18" s="18" t="s">
+      <c r="N18" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18" t="s">
+      <c r="O18" s="17"/>
+      <c r="P18" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="Q18" s="18" t="n">
+      <c r="Q18" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="R18" s="18" t="s">
+      <c r="R18" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="S18" s="18" t="s">
+      <c r="S18" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="T18" s="21" t="s">
+      <c r="T18" s="20" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="L19" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="M19" s="25"/>
-      <c r="N19" s="23" t="s">
+      <c r="M19" s="24"/>
+      <c r="N19" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="P19" s="23" t="s">
+      <c r="P19" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="Q19" s="22" t="n">
+      <c r="Q19" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="R19" s="23" t="s">
+      <c r="R19" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="S19" s="23" t="s">
+      <c r="S19" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="T19" s="25" t="s">
+      <c r="T19" s="24" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="20" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
+    <row r="20" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="21" t="s">
+      <c r="K20" s="17"/>
+      <c r="L20" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="M20" s="21"/>
-      <c r="N20" s="18" t="s">
+      <c r="M20" s="20"/>
+      <c r="N20" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="P20" s="18" t="s">
+      <c r="P20" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="Q20" s="15" t="n">
+      <c r="Q20" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="R20" s="18" t="s">
+      <c r="R20" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="S20" s="18" t="s">
+      <c r="S20" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="T20" s="21" t="s">
+      <c r="T20" s="20" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="25" t="s">
+      <c r="F21" s="26"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="23" t="s">
+      <c r="M21" s="24"/>
+      <c r="N21" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="P21" s="23" t="s">
+      <c r="P21" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="Q21" s="23" t="n">
+      <c r="Q21" s="22" t="n">
         <v>3</v>
       </c>
       <c r="R21" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="S21" s="23" t="s">
+      <c r="S21" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="T21" s="23" t="s">
+      <c r="T21" s="22" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="22" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
+    <row r="22" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="21" t="s">
+      <c r="F22" s="18"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="M22" s="21"/>
-      <c r="N22" s="18" t="s">
+      <c r="M22" s="20"/>
+      <c r="N22" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="P22" s="18" t="s">
+      <c r="P22" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="Q22" s="18" t="n">
+      <c r="Q22" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="R22" s="18" t="s">
+      <c r="R22" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="S22" s="18" t="s">
+      <c r="S22" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="T22" s="18" t="s">
+      <c r="T22" s="17" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="K23" s="23"/>
-      <c r="L23" s="25" t="s">
+      <c r="K23" s="22"/>
+      <c r="L23" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="M23" s="25"/>
-      <c r="N23" s="23" t="s">
+      <c r="M23" s="24"/>
+      <c r="N23" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="P23" s="23" t="s">
+      <c r="P23" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="Q23" s="23" t="n">
+      <c r="Q23" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="R23" s="23" t="s">
+      <c r="R23" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="S23" s="23" t="s">
+      <c r="S23" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="T23" s="25" t="s">
+      <c r="T23" s="24" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="24" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
+    <row r="24" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L24" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="M24" s="21"/>
-      <c r="N24" s="18" t="s">
+      <c r="M24" s="20"/>
+      <c r="N24" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="P24" s="18" t="s">
+      <c r="P24" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="Q24" s="18" t="n">
+      <c r="Q24" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="R24" s="18" t="s">
+      <c r="R24" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="S24" s="18" t="s">
+      <c r="S24" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="T24" s="21" t="s">
+      <c r="T24" s="20" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="23" t="s">
+      <c r="M25" s="24"/>
+      <c r="N25" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="P25" s="23" t="s">
+      <c r="P25" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="Q25" s="23" t="n">
+      <c r="Q25" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="R25" s="23" t="s">
+      <c r="R25" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="S25" s="23" t="s">
+      <c r="S25" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="T25" s="25" t="s">
+      <c r="T25" s="24" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="26" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
+    <row r="26" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="L26" s="21" t="s">
+      <c r="L26" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="M26" s="21"/>
-      <c r="N26" s="18" t="s">
+      <c r="M26" s="20"/>
+      <c r="N26" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="P26" s="18" t="s">
+      <c r="P26" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="Q26" s="18" t="n">
+      <c r="Q26" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="R26" s="18" t="s">
+      <c r="R26" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="S26" s="18" t="s">
+      <c r="S26" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="T26" s="21" t="s">
+      <c r="T26" s="20" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="27" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="33" t="s">
+    <row r="27" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37" t="s">
+      <c r="F27" s="30"/>
+      <c r="G27" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="H27" s="33" t="n">
+      <c r="H27" s="27" t="n">
         <v>600</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="L27" s="38" t="s">
+      <c r="L27" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="33" t="s">
+      <c r="M27" s="32"/>
+      <c r="N27" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="P27" s="33" t="s">
+      <c r="P27" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="Q27" s="33" t="n">
+      <c r="Q27" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="R27" s="33" t="s">
+      <c r="R27" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="S27" s="33" t="s">
+      <c r="S27" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="T27" s="38" t="s">
+      <c r="T27" s="32" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="28" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="s">
+    <row r="28" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="L28" s="21" t="s">
+      <c r="G28" s="19"/>
+      <c r="L28" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="M28" s="21"/>
-      <c r="N28" s="18" t="s">
+      <c r="M28" s="20"/>
+      <c r="N28" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="P28" s="18" t="s">
+      <c r="P28" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="Q28" s="18" t="n">
+      <c r="Q28" s="17" t="n">
         <v>80</v>
       </c>
-      <c r="R28" s="18" t="s">
+      <c r="R28" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="S28" s="18" t="s">
+      <c r="S28" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="T28" s="21" t="s">
+      <c r="T28" s="20" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="29" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="L29" s="31" t="s">
+      <c r="G29" s="6"/>
+      <c r="L29" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="M29" s="31"/>
-      <c r="N29" s="27" t="s">
+      <c r="M29" s="24"/>
+      <c r="N29" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="P29" s="27" t="s">
+      <c r="P29" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="Q29" s="27" t="n">
+      <c r="Q29" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="R29" s="27" t="s">
+      <c r="R29" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="S29" s="27" t="s">
+      <c r="S29" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="T29" s="31" t="s">
+      <c r="T29" s="24" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="30" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18" t="s">
+    <row r="30" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="L30" s="21" t="s">
+      <c r="G30" s="19"/>
+      <c r="L30" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="M30" s="21"/>
-      <c r="N30" s="18" t="s">
+      <c r="M30" s="20"/>
+      <c r="N30" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="P30" s="18" t="s">
+      <c r="P30" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="Q30" s="18" t="n">
+      <c r="Q30" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="R30" s="18" t="s">
+      <c r="R30" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="S30" s="18" t="s">
+      <c r="S30" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="T30" s="21" t="s">
+      <c r="T30" s="20" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>371</v>
       </c>
       <c r="G31" s="6"/>
-      <c r="L31" s="25" t="s">
+      <c r="L31" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="M31" s="25"/>
-      <c r="N31" s="23" t="s">
+      <c r="M31" s="24"/>
+      <c r="N31" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="P31" s="23" t="s">
+      <c r="P31" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="Q31" s="23" t="n">
+      <c r="Q31" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="R31" s="22" t="s">
+      <c r="R31" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="S31" s="23" t="s">
+      <c r="S31" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="T31" s="25" t="s">
+      <c r="T31" s="24" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="32" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18" t="s">
+    <row r="32" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="L32" s="21" t="s">
+      <c r="G32" s="19"/>
+      <c r="L32" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="M32" s="21"/>
-      <c r="N32" s="18" t="s">
+      <c r="M32" s="20"/>
+      <c r="N32" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="P32" s="18" t="s">
+      <c r="P32" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="Q32" s="18" t="n">
+      <c r="Q32" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="R32" s="15" t="s">
+      <c r="R32" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="S32" s="18" t="s">
+      <c r="S32" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="T32" s="21" t="s">
+      <c r="T32" s="20" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>371</v>
       </c>
       <c r="G33" s="6"/>
-      <c r="L33" s="25" t="s">
+      <c r="L33" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="M33" s="25"/>
-      <c r="N33" s="23" t="s">
+      <c r="M33" s="24"/>
+      <c r="N33" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="P33" s="23" t="s">
+      <c r="P33" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="Q33" s="23" t="n">
+      <c r="Q33" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="R33" s="22" t="s">
+      <c r="R33" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="S33" s="23" t="s">
+      <c r="S33" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="T33" s="25" t="s">
+      <c r="T33" s="24" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="34" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18" t="s">
+    <row r="34" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="L34" s="21" t="s">
+      <c r="G34" s="19"/>
+      <c r="L34" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="M34" s="21"/>
-      <c r="N34" s="18" t="s">
+      <c r="M34" s="20"/>
+      <c r="N34" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="P34" s="18" t="s">
+      <c r="P34" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="Q34" s="18" t="n">
+      <c r="Q34" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="R34" s="15" t="s">
+      <c r="R34" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="S34" s="18" t="s">
+      <c r="S34" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="T34" s="21" t="s">
+      <c r="T34" s="20" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="25" t="s">
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="M35" s="25"/>
-      <c r="N35" s="23" t="s">
+      <c r="M35" s="24"/>
+      <c r="N35" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="P35" s="23" t="s">
+      <c r="P35" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="Q35" s="23" t="n">
+      <c r="Q35" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="R35" s="22" t="s">
+      <c r="R35" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="S35" s="23" t="s">
+      <c r="S35" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="T35" s="25" t="s">
+      <c r="T35" s="24" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="36" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18" t="s">
+    <row r="36" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="L36" s="21" t="s">
+      <c r="L36" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="M36" s="21"/>
-      <c r="N36" s="18" t="s">
+      <c r="M36" s="20"/>
+      <c r="N36" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="O36" s="18"/>
-      <c r="Q36" s="39" t="n">
+      <c r="O36" s="17"/>
+      <c r="Q36" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="R36" s="18" t="s">
+      <c r="R36" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="S36" s="18" t="s">
+      <c r="S36" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="T36" s="18" t="s">
+      <c r="T36" s="17" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="L37" s="25" t="s">
+      <c r="L37" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="M37" s="25"/>
-      <c r="N37" s="23" t="s">
+      <c r="M37" s="24"/>
+      <c r="N37" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="Q37" s="40" t="n">
+      <c r="Q37" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="R37" s="23" t="s">
+      <c r="R37" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="S37" s="23" t="s">
+      <c r="S37" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="T37" s="23" t="s">
+      <c r="T37" s="22" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="38" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="18" t="s">
+    <row r="38" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="L38" s="21" t="s">
+      <c r="L38" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="M38" s="21"/>
-      <c r="N38" s="18" t="s">
+      <c r="M38" s="20"/>
+      <c r="N38" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="O38" s="18"/>
-      <c r="Q38" s="39" t="n">
+      <c r="O38" s="17"/>
+      <c r="Q38" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="R38" s="18" t="s">
+      <c r="R38" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="S38" s="18" t="s">
+      <c r="S38" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="T38" s="18" t="s">
+      <c r="T38" s="17" t="s">
         <v>385</v>
       </c>
     </row>
@@ -6068,84 +6029,84 @@
       <c r="B39" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="H39" s="23" t="n">
+      <c r="H39" s="22" t="n">
         <v>250</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="L39" s="23" t="s">
+      <c r="L39" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="N39" s="23" t="s">
+      <c r="N39" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="P39" s="23" t="s">
+      <c r="P39" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="Q39" s="23" t="n">
+      <c r="Q39" s="22" t="n">
         <v>12</v>
       </c>
-      <c r="R39" s="23" t="s">
+      <c r="R39" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="S39" s="23" t="s">
+      <c r="S39" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="T39" s="23" t="s">
+      <c r="T39" s="22" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="40" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20" t="s">
+    <row r="40" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="18" t="s">
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18" t="s">
+      <c r="K40" s="17"/>
+      <c r="L40" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18" t="s">
+      <c r="M40" s="17"/>
+      <c r="N40" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18" t="s">
+      <c r="O40" s="17"/>
+      <c r="P40" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="Q40" s="18" t="n">
+      <c r="Q40" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="R40" s="18" t="s">
+      <c r="R40" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="S40" s="18" t="s">
+      <c r="S40" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="T40" s="18" t="s">
+      <c r="T40" s="17" t="s">
         <v>390</v>
       </c>
     </row>
@@ -6156,31 +6117,31 @@
       <c r="B41" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="J41" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="L41" s="23" t="s">
+      <c r="L41" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="N41" s="23" t="s">
+      <c r="N41" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="P41" s="23" t="s">
+      <c r="P41" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="Q41" s="23" t="n">
+      <c r="Q41" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="R41" s="23" t="s">
+      <c r="R41" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="S41" s="23" t="s">
+      <c r="S41" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="T41" s="23" t="s">
+      <c r="T41" s="22" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6202,931 +6163,929 @@
   </sheetPr>
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="107.975708502024"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.797570850202"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="108.939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="104.655870445344"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="140.862348178138"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="142.145748987854"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5303643724696"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="70.9109311740891"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="71.4493927125506"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="58.0566801619433"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="189.17004048583"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="190.991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>289</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="12" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
+    <row r="2" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="21" t="s">
+      <c r="H2" s="19"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21" t="s">
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21" t="n">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="U2" s="42" t="n">
+      <c r="U2" s="36" t="n">
         <v>100</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="W2" s="21"/>
+      <c r="W2" s="20"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="43"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="21" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="37"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21" t="s">
+      <c r="N3" s="20"/>
+      <c r="O3" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21" t="n">
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="U3" s="44" t="n">
+      <c r="U3" s="38" t="n">
         <v>100</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="V3" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="W3" s="21"/>
+      <c r="W3" s="20"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="43"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="37"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="R4" s="21" t="n">
+      <c r="R4" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="U4" s="44" t="n">
+      <c r="U4" s="38" t="n">
         <v>100</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="V4" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="W4" s="21"/>
+      <c r="W4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>154</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25" t="s">
+      <c r="J5" s="22"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25" t="n">
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="T5" s="24" t="s">
+      <c r="T5" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="U5" s="45" t="n">
+      <c r="U5" s="39" t="n">
         <v>100</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="V5" s="24" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>154</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25" t="s">
+      <c r="J6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25" t="s">
+      <c r="N6" s="24"/>
+      <c r="O6" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25" t="n">
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="S6" s="22" t="s">
+      <c r="S6" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="T6" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="U6" s="46" t="n">
+      <c r="U6" s="40" t="n">
         <v>100</v>
       </c>
-      <c r="V6" s="25" t="s">
+      <c r="V6" s="24" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>154</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25" t="s">
+      <c r="J7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="R7" s="25" t="n">
+      <c r="R7" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="S7" s="22" t="s">
+      <c r="S7" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="T7" s="24" t="s">
+      <c r="T7" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="U7" s="46" t="n">
+      <c r="U7" s="40" t="n">
         <v>100</v>
       </c>
-      <c r="V7" s="25" t="s">
+      <c r="V7" s="24" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="8" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
+    <row r="8" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="21" t="s">
+      <c r="J8" s="17"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21" t="s">
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21" t="n">
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="S8" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="T8" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="U8" s="42" t="n">
+      <c r="U8" s="36" t="n">
         <v>100</v>
       </c>
-      <c r="V8" s="21" t="s">
+      <c r="V8" s="20" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="21" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21" t="s">
+      <c r="N9" s="20"/>
+      <c r="O9" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21" t="n">
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="S9" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="T9" s="16" t="s">
+      <c r="T9" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="U9" s="44" t="n">
+      <c r="U9" s="38" t="n">
         <v>100</v>
       </c>
-      <c r="V9" s="21" t="s">
+      <c r="V9" s="20" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="R10" s="21" t="n">
+      <c r="R10" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="S10" s="15" t="s">
+      <c r="S10" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="T10" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="U10" s="44" t="n">
+      <c r="U10" s="38" t="n">
         <v>100</v>
       </c>
-      <c r="V10" s="21" t="s">
+      <c r="V10" s="20" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="11" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="I11" s="27" t="n">
+      <c r="I11" s="22" t="n">
         <v>600</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="27" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="Q11" s="27" t="s">
+      <c r="Q11" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="R11" s="28" t="n">
+      <c r="R11" s="21" t="n">
         <v>40</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T11" s="27" t="s">
+      <c r="T11" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="U11" s="48" t="n">
+      <c r="U11" s="41" t="n">
         <v>100</v>
       </c>
-      <c r="V11" s="49" t="s">
+      <c r="V11" s="42" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="I12" s="27" t="n">
+      <c r="I12" s="22" t="n">
         <v>600</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="31" t="s">
+      <c r="L12" s="22"/>
+      <c r="M12" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="N12" s="31"/>
-      <c r="O12" s="27" t="s">
+      <c r="N12" s="24"/>
+      <c r="O12" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="Q12" s="27" t="s">
+      <c r="Q12" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="R12" s="28" t="n">
+      <c r="R12" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="S12" s="27" t="s">
+      <c r="S12" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T12" s="27" t="s">
+      <c r="T12" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="U12" s="48" t="n">
+      <c r="U12" s="41" t="n">
         <v>50</v>
       </c>
-      <c r="V12" s="49"/>
+      <c r="V12" s="42"/>
     </row>
     <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="I13" s="27" t="n">
+      <c r="I13" s="22" t="n">
         <v>600</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="31" t="s">
+      <c r="L13" s="22"/>
+      <c r="M13" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="N13" s="31"/>
-      <c r="O13" s="27" t="s">
+      <c r="N13" s="24"/>
+      <c r="O13" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="Q13" s="27" t="s">
+      <c r="Q13" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="R13" s="28" t="n">
+      <c r="R13" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="S13" s="27" t="s">
+      <c r="S13" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T13" s="27" t="s">
+      <c r="T13" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="U13" s="48" t="n">
+      <c r="U13" s="41" t="n">
         <v>50</v>
       </c>
-      <c r="V13" s="49"/>
-    </row>
-    <row r="14" s="17" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
+      <c r="V13" s="42"/>
+    </row>
+    <row r="14" s="16" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="J14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="21" t="s">
+      <c r="H14" s="19"/>
+      <c r="J14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="18" t="s">
+      <c r="N14" s="20"/>
+      <c r="O14" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="Q14" s="18" t="s">
+      <c r="Q14" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="R14" s="15" t="n">
+      <c r="R14" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="S14" s="18" t="s">
+      <c r="S14" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="T14" s="18" t="s">
+      <c r="T14" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="U14" s="50" t="n">
+      <c r="U14" s="43" t="n">
         <v>50</v>
       </c>
-      <c r="V14" s="15" t="s">
+      <c r="V14" s="14" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="17"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="21" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="16"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="18" t="s">
+      <c r="N15" s="20"/>
+      <c r="O15" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="Q15" s="18" t="s">
+      <c r="Q15" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="R15" s="15" t="n">
+      <c r="R15" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="S15" s="18" t="s">
+      <c r="S15" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="T15" s="18" t="s">
+      <c r="T15" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="U15" s="50" t="n">
+      <c r="U15" s="43" t="n">
         <v>50</v>
       </c>
-      <c r="V15" s="15"/>
+      <c r="V15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="22" t="s">
         <v>422</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="25" t="s">
+      <c r="L16" s="22"/>
+      <c r="M16" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="N16" s="25"/>
-      <c r="O16" s="23" t="s">
+      <c r="N16" s="24"/>
+      <c r="O16" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="Q16" s="23" t="s">
+      <c r="Q16" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="R16" s="22" t="n">
+      <c r="R16" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="S16" s="23" t="s">
+      <c r="S16" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T16" s="23" t="s">
+      <c r="T16" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="U16" s="52" t="n">
+      <c r="U16" s="41" t="n">
         <v>50</v>
       </c>
-      <c r="V16" s="22" t="s">
+      <c r="V16" s="21" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>422</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="M17" s="53" t="s">
+      <c r="M17" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="N17" s="25"/>
-      <c r="O17" s="23" t="s">
+      <c r="N17" s="24"/>
+      <c r="O17" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="Q17" s="23" t="s">
+      <c r="Q17" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="R17" s="22" t="n">
+      <c r="R17" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="S17" s="23" t="s">
+      <c r="S17" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T17" s="23" t="s">
+      <c r="T17" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="U17" s="52" t="n">
+      <c r="U17" s="41" t="n">
         <v>50</v>
       </c>
-      <c r="V17" s="22"/>
-    </row>
-    <row r="18" s="17" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
+      <c r="V17" s="21"/>
+    </row>
+    <row r="18" s="16" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="21" t="s">
+      <c r="H18" s="19"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="18" t="s">
+      <c r="N18" s="20"/>
+      <c r="O18" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="Q18" s="18" t="s">
+      <c r="Q18" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="R18" s="15" t="n">
+      <c r="R18" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="S18" s="18" t="s">
+      <c r="S18" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="T18" s="18" t="s">
+      <c r="T18" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="U18" s="50" t="n">
+      <c r="U18" s="43" t="n">
         <v>50</v>
       </c>
-      <c r="V18" s="15" t="s">
+      <c r="V18" s="14" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="19" s="17" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
+    <row r="19" s="16" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="21" t="s">
+      <c r="H19" s="19"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="18" t="s">
+      <c r="N19" s="20"/>
+      <c r="O19" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="Q19" s="18" t="s">
+      <c r="Q19" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="R19" s="15" t="n">
+      <c r="R19" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="S19" s="18" t="s">
+      <c r="S19" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="T19" s="18" t="s">
+      <c r="T19" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="U19" s="50" t="n">
+      <c r="U19" s="43" t="n">
         <v>50</v>
       </c>
-      <c r="V19" s="15"/>
+      <c r="V19" s="14"/>
     </row>
     <row r="20" s="6" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="22" t="s">
         <v>428</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="L20" s="23"/>
-      <c r="M20" s="25" t="s">
+      <c r="L20" s="22"/>
+      <c r="M20" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="23" t="s">
+      <c r="N20" s="24"/>
+      <c r="O20" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="Q20" s="23" t="s">
+      <c r="Q20" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="R20" s="23" t="n">
+      <c r="R20" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="S20" s="23" t="s">
+      <c r="S20" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T20" s="23" t="s">
+      <c r="T20" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="U20" s="54" t="n">
+      <c r="U20" s="45" t="n">
         <v>50</v>
       </c>
-      <c r="V20" s="22" t="s">
+      <c r="V20" s="21" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>304</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>422</v>
       </c>
       <c r="F21" s="6"/>
@@ -7135,981 +7094,981 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="53" t="s">
+      <c r="L21" s="22"/>
+      <c r="M21" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="N21" s="25"/>
-      <c r="O21" s="23" t="s">
+      <c r="N21" s="24"/>
+      <c r="O21" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="Q21" s="23" t="s">
+      <c r="Q21" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="R21" s="23" t="n">
+      <c r="R21" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="S21" s="23" t="s">
+      <c r="S21" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T21" s="23" t="s">
+      <c r="T21" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="U21" s="54" t="n">
+      <c r="U21" s="45" t="n">
         <v>50</v>
       </c>
-      <c r="V21" s="22"/>
-    </row>
-    <row r="22" s="17" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
+      <c r="V21" s="21"/>
+    </row>
+    <row r="22" s="16" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="M22" s="21" t="s">
+      <c r="H22" s="19"/>
+      <c r="M22" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="18" t="s">
+      <c r="N22" s="20"/>
+      <c r="O22" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="Q22" s="18" t="s">
+      <c r="Q22" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="R22" s="18" t="n">
+      <c r="R22" s="17" t="n">
         <v>50</v>
       </c>
-      <c r="S22" s="18" t="s">
+      <c r="S22" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="T22" s="18" t="s">
+      <c r="T22" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="U22" s="50" t="n">
+      <c r="U22" s="43" t="n">
         <v>50</v>
       </c>
-      <c r="V22" s="15" t="s">
+      <c r="V22" s="14" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="23" s="17" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
+    <row r="23" s="16" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="M23" s="21" t="s">
+      <c r="H23" s="19"/>
+      <c r="M23" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="N23" s="21"/>
-      <c r="O23" s="18" t="s">
+      <c r="N23" s="20"/>
+      <c r="O23" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="Q23" s="18" t="s">
+      <c r="Q23" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="R23" s="18" t="n">
+      <c r="R23" s="17" t="n">
         <v>50</v>
       </c>
-      <c r="S23" s="18" t="s">
+      <c r="S23" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="T23" s="18" t="s">
+      <c r="T23" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="U23" s="50" t="n">
+      <c r="U23" s="43" t="n">
         <v>50</v>
       </c>
-      <c r="V23" s="15"/>
+      <c r="V23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="22" t="s">
         <v>435</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="M24" s="25" t="s">
+      <c r="M24" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="23" t="s">
+      <c r="N24" s="24"/>
+      <c r="O24" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="Q24" s="23" t="s">
+      <c r="Q24" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="R24" s="23" t="n">
+      <c r="R24" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="S24" s="23" t="s">
+      <c r="S24" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T24" s="23" t="s">
+      <c r="T24" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="U24" s="52" t="n">
+      <c r="U24" s="41" t="n">
         <v>50</v>
       </c>
-      <c r="V24" s="22" t="s">
+      <c r="V24" s="21" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>435</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="M25" s="25" t="s">
+      <c r="M25" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="N25" s="25"/>
-      <c r="O25" s="23" t="s">
+      <c r="N25" s="24"/>
+      <c r="O25" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="Q25" s="23" t="s">
+      <c r="Q25" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="R25" s="23" t="n">
+      <c r="R25" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="S25" s="23" t="s">
+      <c r="S25" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T25" s="23" t="s">
+      <c r="T25" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="U25" s="52" t="n">
+      <c r="U25" s="41" t="n">
         <v>50</v>
       </c>
-      <c r="V25" s="22"/>
-    </row>
-    <row r="26" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
+      <c r="V25" s="21"/>
+    </row>
+    <row r="26" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="M26" s="21" t="s">
+      <c r="H26" s="19"/>
+      <c r="M26" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="N26" s="21"/>
-      <c r="O26" s="18" t="s">
+      <c r="N26" s="20"/>
+      <c r="O26" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="Q26" s="18" t="s">
+      <c r="Q26" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="R26" s="18" t="n">
+      <c r="R26" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="S26" s="18" t="s">
+      <c r="S26" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="T26" s="18" t="s">
+      <c r="T26" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="U26" s="50" t="n">
+      <c r="U26" s="43" t="n">
         <v>50</v>
       </c>
-      <c r="V26" s="15" t="s">
+      <c r="V26" s="14" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="27" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="s">
+    <row r="27" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="M27" s="21" t="s">
+      <c r="H27" s="19"/>
+      <c r="M27" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="18" t="s">
+      <c r="N27" s="20"/>
+      <c r="O27" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="Q27" s="18" t="s">
+      <c r="Q27" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="R27" s="18" t="n">
+      <c r="R27" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="S27" s="18" t="s">
+      <c r="S27" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="T27" s="18" t="s">
+      <c r="T27" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="U27" s="50" t="n">
+      <c r="U27" s="43" t="n">
         <v>50</v>
       </c>
-      <c r="V27" s="15"/>
+      <c r="V27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="22" t="s">
         <v>439</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="55" t="s">
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="46" t="s">
         <v>442</v>
       </c>
-      <c r="N28" s="55"/>
-      <c r="O28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23" t="n">
+      <c r="N28" s="46"/>
+      <c r="O28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="S28" s="23" t="s">
+      <c r="S28" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T28" s="23" t="s">
+      <c r="T28" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="U28" s="52" t="n">
+      <c r="U28" s="41" t="n">
         <v>-1000</v>
       </c>
-      <c r="V28" s="56"/>
+      <c r="V28" s="47"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="22" t="s">
         <v>439</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="23"/>
-      <c r="Q29" s="23" t="s">
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="22"/>
+      <c r="Q29" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="R29" s="23" t="n">
+      <c r="R29" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="S29" s="23" t="s">
+      <c r="S29" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T29" s="23" t="s">
+      <c r="T29" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="U29" s="52" t="n">
+      <c r="U29" s="41" t="n">
         <v>-1000</v>
       </c>
-      <c r="V29" s="56"/>
+      <c r="V29" s="47"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="22" t="s">
         <v>439</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23" t="s">
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23" t="n">
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="S30" s="23" t="s">
+      <c r="S30" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T30" s="23" t="s">
+      <c r="T30" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="U30" s="52" t="n">
+      <c r="U30" s="41" t="n">
         <v>-1000</v>
       </c>
-      <c r="V30" s="56"/>
+      <c r="V30" s="47"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="22" t="s">
         <v>439</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="I31" s="23" t="n">
+      <c r="I31" s="22" t="n">
         <v>300</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="K31" s="23" t="s">
+      <c r="K31" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23" t="s">
+      <c r="L31" s="22"/>
+      <c r="M31" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23" t="s">
+      <c r="N31" s="22"/>
+      <c r="O31" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="Q31" s="23" t="s">
+      <c r="Q31" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="R31" s="23" t="n">
+      <c r="R31" s="22" t="n">
         <v>60</v>
       </c>
-      <c r="S31" s="23" t="s">
+      <c r="S31" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T31" s="23" t="s">
+      <c r="T31" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="U31" s="52" t="n">
+      <c r="U31" s="41" t="n">
         <v>50</v>
       </c>
-      <c r="V31" s="56"/>
+      <c r="V31" s="47"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="22" t="s">
         <v>439</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="I32" s="23" t="n">
+      <c r="I32" s="22" t="n">
         <v>300</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="K32" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L32" s="23" t="n">
+      <c r="L32" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="M32" s="23" t="s">
+      <c r="M32" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23" t="s">
+      <c r="N32" s="22"/>
+      <c r="O32" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="Q32" s="23" t="s">
+      <c r="Q32" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="R32" s="23" t="n">
+      <c r="R32" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="S32" s="23" t="s">
+      <c r="S32" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T32" s="23" t="s">
+      <c r="T32" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="U32" s="52" t="n">
+      <c r="U32" s="41" t="n">
         <v>50</v>
       </c>
-      <c r="V32" s="56"/>
-    </row>
-    <row r="33" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18" t="s">
+      <c r="V32" s="47"/>
+    </row>
+    <row r="33" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="N33" s="18" t="s">
+      <c r="H33" s="19"/>
+      <c r="N33" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="O33" s="18" t="s">
+      <c r="O33" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="Q33" s="18" t="s">
+      <c r="Q33" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="R33" s="18" t="n">
+      <c r="R33" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="S33" s="18" t="s">
+      <c r="S33" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="T33" s="18" t="s">
+      <c r="T33" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="U33" s="50" t="n">
+      <c r="U33" s="43" t="n">
         <v>-1000</v>
       </c>
-      <c r="V33" s="57"/>
+      <c r="V33" s="48"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="18" t="s">
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="Q34" s="18" t="s">
+      <c r="Q34" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="R34" s="18" t="n">
+      <c r="R34" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="S34" s="18" t="s">
+      <c r="S34" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="T34" s="18" t="s">
+      <c r="T34" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="U34" s="50" t="n">
+      <c r="U34" s="43" t="n">
         <v>-1000</v>
       </c>
-      <c r="V34" s="57"/>
+      <c r="V34" s="48"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="20" t="s">
+      <c r="E35" s="16"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="I35" s="18" t="n">
+      <c r="I35" s="17" t="n">
         <v>600</v>
       </c>
-      <c r="J35" s="18" t="s">
+      <c r="J35" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="K35" s="18" t="s">
+      <c r="K35" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="18" t="s">
+      <c r="L35" s="16"/>
+      <c r="M35" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="N35" s="17"/>
-      <c r="O35" s="18" t="s">
+      <c r="N35" s="16"/>
+      <c r="O35" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="18" t="s">
+      <c r="P35" s="16"/>
+      <c r="Q35" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="R35" s="18" t="n">
+      <c r="R35" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="S35" s="18" t="s">
+      <c r="S35" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="T35" s="18" t="s">
+      <c r="T35" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="U35" s="50" t="n">
+      <c r="U35" s="43" t="n">
         <v>100</v>
       </c>
-      <c r="V35" s="57"/>
+      <c r="V35" s="48"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="22" t="s">
         <v>439</v>
       </c>
       <c r="H36" s="6"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="55" t="s">
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="46" t="s">
         <v>442</v>
       </c>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23" t="n">
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="S36" s="23" t="s">
+      <c r="S36" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T36" s="23" t="s">
+      <c r="T36" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="U36" s="52" t="n">
+      <c r="U36" s="41" t="n">
         <v>-1000</v>
       </c>
-      <c r="V36" s="56"/>
+      <c r="V36" s="47"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="22" t="s">
         <v>439</v>
       </c>
       <c r="H37" s="6"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="Q37" s="23" t="s">
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="Q37" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="R37" s="23" t="n">
+      <c r="R37" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="S37" s="23" t="s">
+      <c r="S37" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T37" s="23" t="s">
+      <c r="T37" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="U37" s="52" t="n">
+      <c r="U37" s="41" t="n">
         <v>-1000</v>
       </c>
-      <c r="V37" s="56"/>
+      <c r="V37" s="47"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="22" t="s">
         <v>439</v>
       </c>
       <c r="H38" s="6"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23" t="s">
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23" t="n">
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="S38" s="23" t="s">
+      <c r="S38" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T38" s="23" t="s">
+      <c r="T38" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="U38" s="52" t="n">
+      <c r="U38" s="41" t="n">
         <v>-1000</v>
       </c>
-      <c r="V38" s="56"/>
+      <c r="V38" s="47"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>457</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="22" t="s">
         <v>439</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="I39" s="23" t="n">
+      <c r="I39" s="22" t="n">
         <v>300</v>
       </c>
-      <c r="J39" s="23" t="s">
+      <c r="J39" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="K39" s="23" t="s">
+      <c r="K39" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23" t="s">
+      <c r="L39" s="22"/>
+      <c r="M39" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23" t="s">
+      <c r="N39" s="22"/>
+      <c r="O39" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="Q39" s="23" t="s">
+      <c r="Q39" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="R39" s="23" t="n">
+      <c r="R39" s="22" t="n">
         <v>40</v>
       </c>
-      <c r="S39" s="23" t="s">
+      <c r="S39" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T39" s="23" t="s">
+      <c r="T39" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="U39" s="52" t="n">
+      <c r="U39" s="41" t="n">
         <v>50</v>
       </c>
-      <c r="V39" s="56"/>
+      <c r="V39" s="47"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>458</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="22" t="s">
         <v>439</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="I40" s="23" t="n">
+      <c r="I40" s="22" t="n">
         <v>300</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="K40" s="23" t="s">
+      <c r="K40" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L40" s="23" t="n">
+      <c r="L40" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="M40" s="23" t="s">
+      <c r="M40" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23" t="s">
+      <c r="N40" s="22"/>
+      <c r="O40" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="Q40" s="23" t="s">
+      <c r="Q40" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="R40" s="23" t="n">
+      <c r="R40" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="S40" s="23" t="s">
+      <c r="S40" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="T40" s="23" t="s">
+      <c r="T40" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="U40" s="52" t="n">
+      <c r="U40" s="41" t="n">
         <v>50</v>
       </c>
-      <c r="V40" s="56"/>
-    </row>
-    <row r="41" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18" t="s">
+      <c r="V40" s="47"/>
+    </row>
+    <row r="41" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59" t="s">
+      <c r="D41" s="50"/>
+      <c r="E41" s="50" t="s">
         <v>412</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20" t="s">
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="I41" s="18" t="n">
+      <c r="I41" s="17" t="n">
         <v>600</v>
       </c>
-      <c r="J41" s="18" t="s">
+      <c r="J41" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="21" t="s">
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="N41" s="21"/>
-      <c r="O41" s="18" t="s">
+      <c r="N41" s="20"/>
+      <c r="O41" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="18" t="s">
+      <c r="P41" s="19"/>
+      <c r="Q41" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="R41" s="15" t="n">
+      <c r="R41" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="S41" s="18" t="s">
+      <c r="S41" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="T41" s="18" t="s">
+      <c r="T41" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="U41" s="50" t="n">
+      <c r="U41" s="43" t="n">
         <v>100</v>
       </c>
-      <c r="V41" s="60" t="s">
+      <c r="V41" s="51" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59" t="s">
+      <c r="D42" s="50"/>
+      <c r="E42" s="50" t="s">
         <v>412</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20" t="s">
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="I42" s="18" t="n">
+      <c r="I42" s="17" t="n">
         <v>600</v>
       </c>
-      <c r="J42" s="18" t="s">
+      <c r="J42" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="K42" s="20"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="21" t="s">
+      <c r="K42" s="19"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="N42" s="21"/>
-      <c r="O42" s="18" t="s">
+      <c r="N42" s="20"/>
+      <c r="O42" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="18" t="s">
+      <c r="P42" s="19"/>
+      <c r="Q42" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="R42" s="15" t="n">
+      <c r="R42" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="S42" s="18" t="s">
+      <c r="S42" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="T42" s="18" t="s">
+      <c r="T42" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="U42" s="50" t="n">
+      <c r="U42" s="43" t="n">
         <v>50</v>
       </c>
-      <c r="V42" s="61"/>
+      <c r="V42" s="52"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59" t="s">
+      <c r="D43" s="50"/>
+      <c r="E43" s="50" t="s">
         <v>412</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20" t="s">
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="I43" s="18" t="n">
+      <c r="I43" s="17" t="n">
         <v>600</v>
       </c>
-      <c r="J43" s="18" t="s">
+      <c r="J43" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="K43" s="20"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="21" t="s">
+      <c r="K43" s="19"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="N43" s="21"/>
-      <c r="O43" s="18" t="s">
+      <c r="N43" s="20"/>
+      <c r="O43" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="18" t="s">
+      <c r="P43" s="19"/>
+      <c r="Q43" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="R43" s="15" t="n">
+      <c r="R43" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="S43" s="18" t="s">
+      <c r="S43" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="T43" s="18" t="s">
+      <c r="T43" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="U43" s="50" t="n">
+      <c r="U43" s="43" t="n">
         <v>50</v>
       </c>
-      <c r="V43" s="61"/>
+      <c r="V43" s="52"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8129,16 +8088,16 @@
   </sheetPr>
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C77" activeCellId="0" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="122.117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="123.186234817814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.1943319838057"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.9433198380567"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8160,13 +8119,13 @@
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23" t="n">
+      <c r="B2" s="22" t="n">
         <v>356</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="53" t="s">
         <v>352</v>
       </c>
     </row>
@@ -8174,18 +8133,18 @@
       <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23" t="n">
+      <c r="B3" s="22" t="n">
         <v>358</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="53" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -8194,7 +8153,7 @@
       <c r="C4" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="53" t="s">
         <v>381</v>
       </c>
     </row>
@@ -8208,7 +8167,7 @@
       <c r="C5" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="53" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8222,7 +8181,7 @@
       <c r="C6" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="53" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8236,7 +8195,7 @@
       <c r="C7" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="53" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8250,26 +8209,26 @@
       <c r="C8" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="53" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="23" t="n">
+      <c r="B9" s="22" t="n">
         <v>476</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="53" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="56" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -8278,12 +8237,12 @@
       <c r="C10" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="53" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="56" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -8292,12 +8251,12 @@
       <c r="C11" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="53" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="56" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -8306,12 +8265,12 @@
       <c r="C12" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="53" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="56" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -8320,7 +8279,7 @@
       <c r="C13" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="53" t="s">
         <v>476</v>
       </c>
     </row>
@@ -8334,7 +8293,7 @@
       <c r="C14" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="53" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8348,7 +8307,7 @@
       <c r="C15" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="53" t="s">
         <v>313</v>
       </c>
     </row>
@@ -8362,7 +8321,7 @@
       <c r="C16" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="53" t="s">
         <v>313</v>
       </c>
     </row>
@@ -8376,7 +8335,7 @@
       <c r="C17" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="53" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8390,7 +8349,7 @@
       <c r="C18" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="53" t="s">
         <v>313</v>
       </c>
     </row>
@@ -8404,7 +8363,7 @@
       <c r="C19" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="53" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8418,7 +8377,7 @@
       <c r="C20" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="53" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8432,7 +8391,7 @@
       <c r="C21" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="53" t="s">
         <v>313</v>
       </c>
     </row>
@@ -8446,7 +8405,7 @@
       <c r="C22" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="53" t="s">
         <v>313</v>
       </c>
     </row>
@@ -8454,13 +8413,13 @@
       <c r="A23" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="23" t="n">
+      <c r="B23" s="22" t="n">
         <v>475</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="53" t="s">
         <v>352</v>
       </c>
     </row>
@@ -8468,13 +8427,13 @@
       <c r="A24" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="23" t="n">
+      <c r="B24" s="22" t="n">
         <v>477</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="53" t="s">
         <v>322</v>
       </c>
     </row>
@@ -8488,7 +8447,7 @@
       <c r="C25" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="53" t="s">
         <v>313</v>
       </c>
     </row>
@@ -8502,7 +8461,7 @@
       <c r="C26" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="53" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8516,7 +8475,7 @@
       <c r="C27" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="53" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8530,7 +8489,7 @@
       <c r="C28" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="53" t="s">
         <v>347</v>
       </c>
     </row>
@@ -8544,7 +8503,7 @@
       <c r="C29" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="53" t="s">
         <v>347</v>
       </c>
     </row>
@@ -8558,7 +8517,7 @@
       <c r="C30" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D30" s="62" t="s">
+      <c r="D30" s="53" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8572,7 +8531,7 @@
       <c r="C31" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="53" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8586,7 +8545,7 @@
       <c r="C32" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="53" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8600,7 +8559,7 @@
       <c r="C33" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D33" s="62" t="s">
+      <c r="D33" s="53" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8614,7 +8573,7 @@
       <c r="C34" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D34" s="62" t="s">
+      <c r="D34" s="53" t="s">
         <v>308</v>
       </c>
     </row>
@@ -8628,7 +8587,7 @@
       <c r="C35" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="D35" s="53" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8642,7 +8601,7 @@
       <c r="C36" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="D36" s="62" t="s">
+      <c r="D36" s="53" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8656,7 +8615,7 @@
       <c r="C37" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="D37" s="53" t="s">
         <v>499</v>
       </c>
     </row>
@@ -8670,7 +8629,7 @@
       <c r="C38" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="D38" s="62" t="s">
+      <c r="D38" s="53" t="s">
         <v>381</v>
       </c>
     </row>
@@ -8678,13 +8637,13 @@
       <c r="A39" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="23" t="n">
+      <c r="B39" s="22" t="n">
         <v>239</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="57" t="s">
         <v>469</v>
       </c>
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="53" t="s">
         <v>381</v>
       </c>
     </row>
@@ -8698,7 +8657,7 @@
       <c r="C40" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D40" s="62" t="s">
+      <c r="D40" s="53" t="s">
         <v>313</v>
       </c>
     </row>
@@ -8712,7 +8671,7 @@
       <c r="C41" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D41" s="62" t="s">
+      <c r="D41" s="53" t="s">
         <v>313</v>
       </c>
     </row>
@@ -8726,7 +8685,7 @@
       <c r="C42" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D42" s="62" t="s">
+      <c r="D42" s="53" t="s">
         <v>313</v>
       </c>
     </row>
@@ -8740,7 +8699,7 @@
       <c r="C43" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D43" s="62" t="s">
+      <c r="D43" s="53" t="s">
         <v>505</v>
       </c>
     </row>
@@ -8754,7 +8713,7 @@
       <c r="C44" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D44" s="62" t="s">
+      <c r="D44" s="53" t="s">
         <v>308</v>
       </c>
     </row>
@@ -8768,7 +8727,7 @@
       <c r="C45" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D45" s="62" t="s">
+      <c r="D45" s="53" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8782,7 +8741,7 @@
       <c r="C46" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D46" s="62" t="s">
+      <c r="D46" s="53" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8796,7 +8755,7 @@
       <c r="C47" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D47" s="62" t="s">
+      <c r="D47" s="53" t="s">
         <v>510</v>
       </c>
     </row>
@@ -8810,7 +8769,7 @@
       <c r="C48" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D48" s="62" t="s">
+      <c r="D48" s="53" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8824,7 +8783,7 @@
       <c r="C49" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D49" s="62" t="s">
+      <c r="D49" s="53" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8838,7 +8797,7 @@
       <c r="C50" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D50" s="62" t="s">
+      <c r="D50" s="53" t="s">
         <v>308</v>
       </c>
     </row>
@@ -8852,7 +8811,7 @@
       <c r="C51" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D51" s="62" t="s">
+      <c r="D51" s="53" t="s">
         <v>515</v>
       </c>
     </row>
@@ -8866,7 +8825,7 @@
       <c r="C52" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D52" s="62" t="s">
+      <c r="D52" s="53" t="s">
         <v>515</v>
       </c>
     </row>
@@ -8880,7 +8839,7 @@
       <c r="C53" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D53" s="62" t="s">
+      <c r="D53" s="53" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8894,7 +8853,7 @@
       <c r="C54" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D54" s="62" t="s">
+      <c r="D54" s="53" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8908,7 +8867,7 @@
       <c r="C55" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D55" s="62" t="s">
+      <c r="D55" s="53" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8922,7 +8881,7 @@
       <c r="C56" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D56" s="62" t="s">
+      <c r="D56" s="53" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8936,7 +8895,7 @@
       <c r="C57" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D57" s="67" t="s">
+      <c r="D57" s="58" t="s">
         <v>365</v>
       </c>
     </row>
@@ -8950,7 +8909,7 @@
       <c r="C58" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D58" s="67" t="s">
+      <c r="D58" s="58" t="s">
         <v>365</v>
       </c>
     </row>
@@ -8964,7 +8923,7 @@
       <c r="C59" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D59" s="67" t="s">
+      <c r="D59" s="58" t="s">
         <v>365</v>
       </c>
     </row>
@@ -8978,7 +8937,7 @@
       <c r="C60" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D60" s="67" t="s">
+      <c r="D60" s="58" t="s">
         <v>365</v>
       </c>
     </row>
@@ -8992,7 +8951,7 @@
       <c r="C61" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D61" s="67" t="s">
+      <c r="D61" s="58" t="s">
         <v>365</v>
       </c>
     </row>
@@ -9006,7 +8965,7 @@
       <c r="C62" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D62" s="67" t="s">
+      <c r="D62" s="58" t="s">
         <v>365</v>
       </c>
     </row>
@@ -9020,7 +8979,7 @@
       <c r="C63" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D63" s="67" t="s">
+      <c r="D63" s="58" t="s">
         <v>365</v>
       </c>
     </row>
@@ -9034,7 +8993,7 @@
       <c r="C64" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D64" s="67" t="s">
+      <c r="D64" s="58" t="s">
         <v>365</v>
       </c>
     </row>
@@ -9048,7 +9007,7 @@
       <c r="C65" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D65" s="62" t="s">
+      <c r="D65" s="53" t="s">
         <v>362</v>
       </c>
     </row>
@@ -9062,7 +9021,7 @@
       <c r="C66" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D66" s="62" t="s">
+      <c r="D66" s="53" t="s">
         <v>531</v>
       </c>
     </row>
@@ -9076,7 +9035,7 @@
       <c r="C67" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D67" s="62" t="s">
+      <c r="D67" s="53" t="s">
         <v>313</v>
       </c>
     </row>
@@ -9084,13 +9043,13 @@
       <c r="A68" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B68" s="23" t="n">
+      <c r="B68" s="22" t="n">
         <v>481</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D68" s="62" t="s">
+      <c r="D68" s="53" t="s">
         <v>375</v>
       </c>
     </row>
@@ -9098,13 +9057,13 @@
       <c r="A69" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="23" t="n">
+      <c r="B69" s="22" t="n">
         <v>482</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D69" s="62" t="s">
+      <c r="D69" s="53" t="s">
         <v>375</v>
       </c>
     </row>
@@ -9112,27 +9071,27 @@
       <c r="A70" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="23" t="n">
+      <c r="B70" s="22" t="n">
         <v>473</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D70" s="62" t="s">
+      <c r="D70" s="53" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B71" s="23" t="n">
+      <c r="B71" s="22" t="n">
         <v>478</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="D71" s="68" t="s">
+      <c r="D71" s="59" t="s">
         <v>533</v>
       </c>
     </row>
@@ -9140,13 +9099,13 @@
       <c r="A72" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B72" s="23" t="n">
+      <c r="B72" s="22" t="n">
         <v>479</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D72" s="62" t="s">
+      <c r="D72" s="53" t="s">
         <v>375</v>
       </c>
     </row>
@@ -9154,13 +9113,13 @@
       <c r="A73" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B73" s="23" t="n">
+      <c r="B73" s="22" t="n">
         <v>480</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D73" s="62" t="s">
+      <c r="D73" s="53" t="s">
         <v>375</v>
       </c>
     </row>
@@ -9168,13 +9127,13 @@
       <c r="A74" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B74" s="23" t="n">
+      <c r="B74" s="22" t="n">
         <v>99</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D74" s="62" t="s">
+      <c r="D74" s="53" t="s">
         <v>534</v>
       </c>
     </row>
@@ -9182,13 +9141,13 @@
       <c r="A75" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B75" s="23" t="n">
+      <c r="B75" s="22" t="n">
         <v>483</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="D75" s="62" t="s">
+        <v>535</v>
+      </c>
+      <c r="D75" s="53" t="s">
         <v>534</v>
       </c>
     </row>
@@ -9196,13 +9155,13 @@
       <c r="A76" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B76" s="23" t="n">
+      <c r="B76" s="22" t="n">
         <v>484</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D76" s="68" t="s">
+      <c r="D76" s="59" t="s">
         <v>386</v>
       </c>
     </row>
@@ -9210,13 +9169,13 @@
       <c r="A77" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B77" s="23" t="n">
+      <c r="B77" s="22" t="n">
         <v>485</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D77" s="68" t="s">
+      <c r="D77" s="59" t="s">
         <v>386</v>
       </c>
     </row>
@@ -9224,13 +9183,13 @@
       <c r="A78" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="B78" s="23" t="n">
+      <c r="B78" s="22" t="n">
         <v>486</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D78" s="67" t="s">
+      <c r="D78" s="58" t="s">
         <v>313</v>
       </c>
     </row>
@@ -9238,13 +9197,13 @@
       <c r="A79" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B79" s="23" t="n">
+      <c r="B79" s="22" t="n">
         <v>487</v>
       </c>
-      <c r="C79" s="69" t="s">
+      <c r="C79" s="60" t="s">
         <v>469</v>
       </c>
-      <c r="D79" s="68" t="s">
+      <c r="D79" s="59" t="s">
         <v>386</v>
       </c>
     </row>
@@ -9252,13 +9211,13 @@
       <c r="A80" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B80" s="23" t="n">
+      <c r="B80" s="22" t="n">
         <v>488</v>
       </c>
-      <c r="C80" s="69" t="s">
+      <c r="C80" s="60" t="s">
         <v>469</v>
       </c>
-      <c r="D80" s="68" t="s">
+      <c r="D80" s="59" t="s">
         <v>386</v>
       </c>
     </row>
@@ -9266,13 +9225,13 @@
       <c r="A81" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="B81" s="23" t="n">
+      <c r="B81" s="22" t="n">
         <v>489</v>
       </c>
-      <c r="C81" s="69" t="s">
+      <c r="C81" s="60" t="s">
         <v>469</v>
       </c>
-      <c r="D81" s="68" t="s">
+      <c r="D81" s="59" t="s">
         <v>386</v>
       </c>
     </row>
@@ -9280,13 +9239,13 @@
       <c r="A82" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B82" s="23" t="n">
+      <c r="B82" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="C82" s="69" t="s">
+      <c r="C82" s="60" t="s">
         <v>469</v>
       </c>
-      <c r="D82" s="68" t="s">
+      <c r="D82" s="59" t="s">
         <v>386</v>
       </c>
     </row>
@@ -9294,55 +9253,55 @@
       <c r="A83" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="B83" s="23" t="n">
+      <c r="B83" s="22" t="n">
         <v>491</v>
       </c>
-      <c r="C83" s="69" t="s">
+      <c r="C83" s="60" t="s">
         <v>469</v>
       </c>
-      <c r="D83" s="68" t="s">
-        <v>535</v>
+      <c r="D83" s="59" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B84" s="23" t="n">
+      <c r="B84" s="22" t="n">
         <v>492</v>
       </c>
-      <c r="C84" s="69" t="s">
+      <c r="C84" s="60" t="s">
         <v>469</v>
       </c>
-      <c r="D84" s="68" t="s">
-        <v>536</v>
+      <c r="D84" s="59" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B85" s="23" t="n">
+      <c r="B85" s="22" t="n">
         <v>493</v>
       </c>
-      <c r="C85" s="69" t="s">
+      <c r="C85" s="60" t="s">
         <v>469</v>
       </c>
-      <c r="D85" s="68" t="s">
-        <v>537</v>
+      <c r="D85" s="59" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B86" s="23" t="n">
+      <c r="B86" s="22" t="n">
         <v>494</v>
       </c>
-      <c r="C86" s="69" t="s">
+      <c r="C86" s="60" t="s">
         <v>469</v>
       </c>
-      <c r="D86" s="70" t="s">
+      <c r="D86" s="61" t="s">
         <v>362</v>
       </c>
     </row>
@@ -9350,13 +9309,13 @@
       <c r="A87" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B87" s="23" t="n">
+      <c r="B87" s="22" t="n">
         <v>495</v>
       </c>
-      <c r="C87" s="69" t="s">
+      <c r="C87" s="60" t="s">
         <v>469</v>
       </c>
-      <c r="D87" s="67" t="s">
+      <c r="D87" s="58" t="s">
         <v>362</v>
       </c>
     </row>
